--- a/public/datacards.xlsx
+++ b/public/datacards.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
@@ -481,6 +481,160 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/public/datacards.xlsx
+++ b/public/datacards.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>Nombre</t>
   </si>
@@ -77,6 +77,138 @@
   </si>
   <si>
     <t>Sabotaje</t>
+  </si>
+  <si>
+    <t>Amanecer de los muertos</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 0, "Conflicto": "5"}</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>{"Amenaza": -3, "Conflicto": "4"}</t>
+  </si>
+  <si>
+    <t>Blanca Romero</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 0, "Conflicto": "2"}</t>
+  </si>
+  <si>
+    <t>Bruce Vergara</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 1, "Conflicto": "3"}</t>
+  </si>
+  <si>
+    <t>Caminata nocturna</t>
+  </si>
+  <si>
+    <t>Camino equivocado</t>
+  </si>
+  <si>
+    <t>Coronel Navarro</t>
+  </si>
+  <si>
+    <t>{"Amenaza": -2, "Conflicto": "5"}</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 1, "Conflicto": "1"}</t>
+  </si>
+  <si>
+    <t>Daging</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 5, "Conflicto": "5"}</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 6, "Conflicto": "1"}</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 3, "Conflicto": "4"}</t>
+  </si>
+  <si>
+    <t>Fahri</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 2, "Conflicto": "1"}</t>
+  </si>
+  <si>
+    <t>Frieda</t>
+  </si>
+  <si>
+    <t>{"Amenaza": -1, "Conflicto": "4"}</t>
+  </si>
+  <si>
+    <t>Grupo improvisado</t>
+  </si>
+  <si>
+    <t>Hilibka</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 6, "Conflicto": "4"}</t>
+  </si>
+  <si>
+    <t>Inyama, el sacerdote</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 7, "Conflicto": "6"}</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 5, "Conflicto": "3"}</t>
+  </si>
+  <si>
+    <t>Juana del Carmen</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 4, "Conflicto": "1"}</t>
+  </si>
+  <si>
+    <t>Kevin Brayatan</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 1, "Conflicto": "2"}</t>
+  </si>
+  <si>
+    <t>Luisa Zambrano</t>
+  </si>
+  <si>
+    <t>{"Amenaza": 2, "Conflicto": "4"}</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>Manipulacion social</t>
+  </si>
+  <si>
+    <t>Marcha frenetica</t>
+  </si>
+  <si>
+    <t>Pandilla infame</t>
+  </si>
+  <si>
+    <t>Pausa necesaria</t>
   </si>
 </sst>
 </file>
@@ -333,7 +465,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.13"/>
+    <col customWidth="1" min="1" max="1" width="20.0"/>
     <col customWidth="1" min="2" max="2" width="8.5"/>
     <col customWidth="1" min="3" max="4" width="24.38"/>
   </cols>
@@ -494,145 +626,299 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
